--- a/Inputs/inputs_RE.xlsx
+++ b/Inputs/inputs_RE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94A9A12-BDD7-56FD-8819-BCD3023FE1FD}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24829B5-14F0-4B0E-92CE-D4FAC7DDD001}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -646,17 +646,17 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.02</v>
       </c>
@@ -722,9 +722,9 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>241300</xdr:colOff>
+                    <xdr:colOff>238125</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -746,14 +746,14 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -797,17 +797,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1.4000710227272728E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -884,7 +884,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -900,20 +900,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45D110-F0D2-4F9D-B0C4-13B38005F879}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -938,7 +938,7 @@
         <v>335.12299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -952,7 +952,7 @@
         <v>323.07068600000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -966,7 +966,7 @@
         <v>310.63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -980,7 +980,7 @@
         <v>298.57800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
         <v>286.52600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>274.08500000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>269.80900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>265.92099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>261.64400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>257.36799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>253.09100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>249.20400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>244.92699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>240.65100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1132,6 +1132,20 @@
       </c>
       <c r="D16">
         <v>236.374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>652.61800000000005</v>
+      </c>
+      <c r="D17">
+        <v>232.48699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1150,19 +1164,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>0.34800785000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1194,7 @@
         <v>0.26788265000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1203,14 +1217,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1248,13 +1262,13 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="5.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1573,12 +1587,12 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="25" width="6.6328125" customWidth="1"/>
+    <col min="2" max="25" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -1652,7 +1666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>0.57693786350230403</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1806,7 +1820,7 @@
         <v>0.39380200730040377</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1883,84 +1897,84 @@
         <v>0.32997560070809001</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -1979,12 +1993,12 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="25" width="6.6328125" customWidth="1"/>
+    <col min="2" max="25" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -2058,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>0.62185117302052784</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>0.19264757142857142</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2289,97 +2303,97 @@
         <v>0.3463776522754351</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2390,23 +2404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D835CF4C7D56B243BA013D4D2E10914B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e645ef68b9493f2ee8bae9e534bc24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d4e152b-60f6-4719-8921-68b5b8011cde" xmlns:ns4="28683373-984a-4841-9f0e-018f3f7bab1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a06da6e71fc3d3bdf7cbe176c2a8afa1" ns3:_="" ns4:_="">
     <xsd:import namespace="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
@@ -2659,10 +2656,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
+    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2685,20 +2710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
-    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>